--- a/data/Variació PIB.xlsx
+++ b/data/Variació PIB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\Hackaton-UAB-2025\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ACFA6E-5C25-4E75-A22B-89F197CB30C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337494C7-6E42-4D06-AD6A-E624CA1CEEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>ANDALUCÍA</t>
   </si>
@@ -264,13 +264,22 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>TIPUS</t>
+  </si>
+  <si>
+    <t>CCAA</t>
+  </si>
+  <si>
+    <t>PROVINCIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -299,6 +308,12 @@
       <name val="Arial Greek"/>
       <family val="2"/>
       <charset val="161"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -349,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -365,12 +380,55 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_cuadrosWEB" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Greek"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -991,24 +1049,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93BD622D-F964-4BE7-A941-C86EF462A0E5}" name="Tabla13" displayName="Tabla13" ref="A1:O63" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A1:O63" xr:uid="{93BD622D-F964-4BE7-A941-C86EF462A0E5}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{948CB5CB-30B1-4BC6-ADDD-44FD1E953925}" name="AÑO" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{3261CA58-63CE-4644-B750-D77AF45D825C}" name="2009" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{50282911-5131-42FE-8426-0D92D5BB05C8}" name="2010" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{3603F886-C03B-4BE5-A1B8-F8DE5A7F4C90}" name="2011" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{2FC92547-F454-4E67-8D7F-F0948FF7244C}" name="2012" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{EA13C9BE-FFEF-49B6-A092-108A60C48C91}" name="2013" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{8676DB9C-5D5E-4848-B8F8-CBB79EFD9CC5}" name="2014" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{45954962-D4F8-422F-A702-6E297BE4BB5E}" name="2015" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{A4B50B0D-1F4D-43DB-AD91-82E50905AE86}" name="2016" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{F19E9255-7199-4C3B-9C7B-40B7F64635A5}" name="2017" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{F88DCDCB-7990-4A9E-B19D-BD0853514C7F}" name="2018" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{C5F7B2BF-A189-49A1-BBD9-3C03EC8C2A5A}" name="2019" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{60528FA0-C50C-48DA-9696-795C2B0DA6AF}" name="2020" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{BD1E1A57-641D-48D2-8D23-0D9B71C922A0}" name="2021" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{AEB996D8-F3F2-421E-BAC3-67DDC4E5F007}" name="2022" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93BD622D-F964-4BE7-A941-C86EF462A0E5}" name="Tabla13" displayName="Tabla13" ref="A1:P63" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P63" xr:uid="{93BD622D-F964-4BE7-A941-C86EF462A0E5}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{948CB5CB-30B1-4BC6-ADDD-44FD1E953925}" name="AÑO" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{5C4563F9-D7AC-4E66-BFDF-A24EB47A4B7B}" name="TIPUS" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3261CA58-63CE-4644-B750-D77AF45D825C}" name="2009" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{50282911-5131-42FE-8426-0D92D5BB05C8}" name="2010" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{3603F886-C03B-4BE5-A1B8-F8DE5A7F4C90}" name="2011" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{2FC92547-F454-4E67-8D7F-F0948FF7244C}" name="2012" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{EA13C9BE-FFEF-49B6-A092-108A60C48C91}" name="2013" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{8676DB9C-5D5E-4848-B8F8-CBB79EFD9CC5}" name="2014" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{45954962-D4F8-422F-A702-6E297BE4BB5E}" name="2015" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{A4B50B0D-1F4D-43DB-AD91-82E50905AE86}" name="2016" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{F19E9255-7199-4C3B-9C7B-40B7F64635A5}" name="2017" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{F88DCDCB-7990-4A9E-B19D-BD0853514C7F}" name="2018" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{C5F7B2BF-A189-49A1-BBD9-3C03EC8C2A5A}" name="2019" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{60528FA0-C50C-48DA-9696-795C2B0DA6AF}" name="2020" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{BD1E1A57-641D-48D2-8D23-0D9B71C922A0}" name="2021" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{AEB996D8-F3F2-421E-BAC3-67DDC4E5F007}" name="2022" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1301,2974 +1360,3166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CC1D91-970F-4FA1-AD88-939332090AB3}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B63" sqref="B1:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3">
         <v>145802256</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>145853901</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>144494494</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>139052618</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>137294091</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>139135225</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>146406094</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>149901897</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>156789484</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>161894301</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>166478730</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>150452909</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>166296356</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>184051418</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="5">
         <v>12961587</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>12729223</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>11888049</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>11753215</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>11584596</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>12116100</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>13048911</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>14185706</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>15159388</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>15282092</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>16003582</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>14764342</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>14861150</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>16480400</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="5">
         <v>20705775</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>21046004</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>20970662</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>20162468</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>19733945</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>19552668</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>20227757</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>20879560</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>21860392</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>22462629</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>23352580</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>20477353</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>22876782</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>25705062</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5">
         <v>13427755</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>13326547</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>13157246</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>12399001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>12542253</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>12604752</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>13354263</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>13567313</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>14113022</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>14292383</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>14237228</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>13134510</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>14512133</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>15518199</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="5">
         <v>15176799</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>15075620</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>15053747</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>14718077</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>14609048</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>15079116</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>15864646</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>15888251</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>16314359</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>16798633</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>17538085</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>15967883</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>17357256</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>19180331</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="5">
         <v>8733862</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>8966643</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>9283857</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>9030105</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>8425245</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>8408085</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>8936147</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>9288980</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>10037865</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>10616525</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>10650577</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>9353422</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>10640222</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>12737177</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="5">
         <v>10882126</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>10923750</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>10914754</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>9750504</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>10391709</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>9892196</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>11120128</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>10903626</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>11122181</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>11635259</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>11267290</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>10781405</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>11853935</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>11735876</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="5">
         <v>27701691</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>27697120</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>27250577</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>26063000</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>25828384</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>26607877</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>27876393</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>28513572</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>29891621</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>31204388</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>32530116</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>28516619</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>32619883</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>37228993</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="5">
         <v>36212661</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>36088994</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>35975602</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>35176248</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>34178911</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>34874431</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>35977849</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>36674889</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>38290656</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>39602392</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>40899272</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>37457375</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>41574995</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>45465380</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3">
         <v>33814117</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>34100336</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>33631537</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>32169749</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>32323922</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>32602458</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>33265930</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>34542128</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>35983544</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>37213896</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>38465053</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>35955571</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>38782157</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>43655726</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="5">
         <v>5782678</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>5914335</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>5873448</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>5582708</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>5740781</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>5685192</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>5739438</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>6224092</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>6275164</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>6339722</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>6567333</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>6331038</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>6780105</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>7629119</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="5">
         <v>3525727</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>3509197</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>3446252</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>3351557</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>3366931</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>3372907</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>3287477</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>3256277</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>3222753</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>3381320</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>3422528</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>3120527</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>3529024</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>4072495</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="5">
         <v>24505712</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>24676804</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>24311837</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>23235484</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>23216210</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>23544359</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>24239015</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>25061759</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <v>26485627</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>27492854</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>28475192</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>26504006</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>28473028</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>31954112</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3">
         <v>22366414</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>22590616</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>22261796</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>21265200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>20693890</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>20636251</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>21388142</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>21675441</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>22538267</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>23185680</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23666618</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21376392</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23617641</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>26698594</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3">
         <v>26770420</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>26797013</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>26646250</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>26224305</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>26227926</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>27108615</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>28653742</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>30233284</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>31746251</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>33185968</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>34350576</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>26669106</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16" s="3">
         <v>30512146</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>37187160</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3">
         <v>39505370</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>39738165</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>39611706</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38239602</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>38066975</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>38312937</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>39636569</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>40979670</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43035839</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>44609266</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>45766832</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>37587399</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>41407275</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>48865336</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="5">
         <v>20392837</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D18" s="5">
         <v>20126887</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>20093884</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>19343146</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>19519081</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>19572599</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>20106192</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>21133454</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>22089679</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>22974312</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <v>23478690</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>19159502</v>
       </c>
-      <c r="N18" s="5">
+      <c r="O18" s="5">
         <v>21364107</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <v>25459113</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="5">
         <v>19112533</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D19" s="5">
         <v>19611278</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>19517822</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>18896456</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>18547894</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <v>18740338</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
         <v>19530377</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="5">
         <v>19846216</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <v>20946160</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>21634954</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <v>22288142</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>18427897</v>
       </c>
-      <c r="N19" s="5">
+      <c r="O19" s="5">
         <v>20043168</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <v>23406223</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3">
         <v>12811684</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>12882755</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>12680314</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12224935</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>11944124</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12158496</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>12443843</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12833899</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>13318023</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13843935</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14274351</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12991241</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14206538</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>15560453</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3">
         <v>54452146</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>54692531</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>54328993</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>52589720</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>51280425</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>51383670</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>53183396</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>54630532</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>55879293</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>58326859</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>59649198</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>54794589</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>59465900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>65461058</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="5">
         <v>3124734</v>
       </c>
-      <c r="C22" s="5">
+      <c r="D22" s="5">
         <v>3113363</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5">
         <v>3111140</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
         <v>3043861</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>2954036</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <v>2944742</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <v>2996734</v>
       </c>
-      <c r="I22" s="5">
+      <c r="J22" s="5">
         <v>3003333</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
         <v>3087954</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>3191993</v>
       </c>
-      <c r="L22" s="5">
+      <c r="M22" s="5">
         <v>3296499</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="5">
         <v>3056383</v>
       </c>
-      <c r="N22" s="5">
+      <c r="O22" s="5">
         <v>3247657</v>
       </c>
-      <c r="O22" s="5">
+      <c r="P22" s="5">
         <v>3471945</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="5">
         <v>9512626</v>
       </c>
-      <c r="C23" s="5">
+      <c r="D23" s="5">
         <v>9548108</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E23" s="5">
         <v>9600736</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <v>9431174</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>9068369</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H23" s="5">
         <v>8995223</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <v>9253667</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <v>9572090</v>
       </c>
-      <c r="J23" s="5">
+      <c r="K23" s="5">
         <v>10054308</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <v>10494196</v>
       </c>
-      <c r="L23" s="5">
+      <c r="M23" s="5">
         <v>10628487</v>
       </c>
-      <c r="M23" s="5">
+      <c r="N23" s="5">
         <v>9620320</v>
       </c>
-      <c r="N23" s="5">
+      <c r="O23" s="5">
         <v>10224118</v>
       </c>
-      <c r="O23" s="5">
+      <c r="P23" s="5">
         <v>10710050</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="5">
         <v>9904067</v>
       </c>
-      <c r="C24" s="5">
+      <c r="D24" s="5">
         <v>9847470</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="5">
         <v>9676195</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <v>9391710</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>9068552</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="5">
         <v>9027946</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5">
         <v>9257823</v>
       </c>
-      <c r="I24" s="5">
+      <c r="J24" s="5">
         <v>9231953</v>
       </c>
-      <c r="J24" s="5">
+      <c r="K24" s="5">
         <v>9506147</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <v>9777598</v>
       </c>
-      <c r="L24" s="5">
+      <c r="M24" s="5">
         <v>10041788</v>
       </c>
-      <c r="M24" s="5">
+      <c r="N24" s="5">
         <v>9276493</v>
       </c>
-      <c r="N24" s="5">
+      <c r="O24" s="5">
         <v>10454424</v>
       </c>
-      <c r="O24" s="5">
+      <c r="P24" s="5">
         <v>11755580</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="5">
         <v>4091740</v>
       </c>
-      <c r="C25" s="5">
+      <c r="D25" s="5">
         <v>4030994</v>
       </c>
-      <c r="D25" s="5">
+      <c r="E25" s="5">
         <v>4050897</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <v>3814837</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <v>3770079</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="5">
         <v>3731512</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
         <v>3935432</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="5">
         <v>4171878</v>
       </c>
-      <c r="J25" s="5">
+      <c r="K25" s="5">
         <v>4070286</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <v>4375118</v>
       </c>
-      <c r="L25" s="5">
+      <c r="M25" s="5">
         <v>4417915</v>
       </c>
-      <c r="M25" s="5">
+      <c r="N25" s="5">
         <v>4042436</v>
       </c>
-      <c r="N25" s="5">
+      <c r="O25" s="5">
         <v>4326851</v>
       </c>
-      <c r="O25" s="5">
+      <c r="P25" s="5">
         <v>4718019</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="5">
         <v>6705061</v>
       </c>
-      <c r="C26" s="5">
+      <c r="D26" s="5">
         <v>6445695</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E26" s="5">
         <v>6403359</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <v>6167057</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>5985886</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <v>6016700</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <v>6255799</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <v>6511439</v>
       </c>
-      <c r="J26" s="5">
+      <c r="K26" s="5">
         <v>6692406</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5">
         <v>6894146</v>
       </c>
-      <c r="L26" s="5">
+      <c r="M26" s="5">
         <v>7149679</v>
       </c>
-      <c r="M26" s="5">
+      <c r="N26" s="5">
         <v>6583497</v>
       </c>
-      <c r="N26" s="5">
+      <c r="O26" s="5">
         <v>7386843</v>
       </c>
-      <c r="O26" s="5">
+      <c r="P26" s="5">
         <v>8649008</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="5">
         <v>3464429</v>
       </c>
-      <c r="C27" s="5">
+      <c r="D27" s="5">
         <v>3506660</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <v>3433738</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>3264698</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>3195047</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <v>3244700</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <v>3386785</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <v>3377877</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K27" s="5">
         <v>3260124</v>
       </c>
-      <c r="K27" s="5">
+      <c r="L27" s="5">
         <v>3377956</v>
       </c>
-      <c r="L27" s="5">
+      <c r="M27" s="5">
         <v>3482508</v>
       </c>
-      <c r="M27" s="5">
+      <c r="N27" s="5">
         <v>3163709</v>
       </c>
-      <c r="N27" s="5">
+      <c r="O27" s="5">
         <v>3646707</v>
       </c>
-      <c r="O27" s="5">
+      <c r="P27" s="5">
         <v>4041134</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="5">
         <v>2101824</v>
       </c>
-      <c r="C28" s="5">
+      <c r="D28" s="5">
         <v>2185773</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E28" s="5">
         <v>2178606</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5">
         <v>2050246</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>2063460</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <v>2089420</v>
       </c>
-      <c r="H28" s="5">
+      <c r="I28" s="5">
         <v>2157741</v>
       </c>
-      <c r="I28" s="5">
+      <c r="J28" s="5">
         <v>2163618</v>
       </c>
-      <c r="J28" s="5">
+      <c r="K28" s="5">
         <v>2209607</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5">
         <v>2492230</v>
       </c>
-      <c r="L28" s="5">
+      <c r="M28" s="5">
         <v>2530167</v>
       </c>
-      <c r="M28" s="5">
+      <c r="N28" s="5">
         <v>2291715</v>
       </c>
-      <c r="N28" s="5">
+      <c r="O28" s="5">
         <v>2555836</v>
       </c>
-      <c r="O28" s="5">
+      <c r="P28" s="5">
         <v>2717938</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="5">
         <v>12090954</v>
       </c>
-      <c r="C29" s="5">
+      <c r="D29" s="5">
         <v>12493827</v>
       </c>
-      <c r="D29" s="5">
+      <c r="E29" s="5">
         <v>12301149</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
         <v>11883204</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="5">
         <v>11780088</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <v>11979555</v>
       </c>
-      <c r="H29" s="5">
+      <c r="I29" s="5">
         <v>12477834</v>
       </c>
-      <c r="I29" s="5">
+      <c r="J29" s="5">
         <v>13121197</v>
       </c>
-      <c r="J29" s="5">
+      <c r="K29" s="5">
         <v>13737381</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <v>14353734</v>
       </c>
-      <c r="L29" s="5">
+      <c r="M29" s="5">
         <v>14611199</v>
       </c>
-      <c r="M29" s="5">
+      <c r="N29" s="5">
         <v>13556027</v>
       </c>
-      <c r="N29" s="5">
+      <c r="O29" s="5">
         <v>13949687</v>
       </c>
-      <c r="O29" s="5">
+      <c r="P29" s="5">
         <v>15252718</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="5">
         <v>3456711</v>
       </c>
-      <c r="C30" s="5">
+      <c r="D30" s="5">
         <v>3520641</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="5">
         <v>3573173</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <v>3542933</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <v>3394908</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <v>3353872</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <v>3461581</v>
       </c>
-      <c r="I30" s="5">
+      <c r="J30" s="5">
         <v>3477147</v>
       </c>
-      <c r="J30" s="5">
+      <c r="K30" s="5">
         <v>3261080</v>
       </c>
-      <c r="K30" s="5">
+      <c r="L30" s="5">
         <v>3369888</v>
       </c>
-      <c r="L30" s="5">
+      <c r="M30" s="5">
         <v>3490956</v>
       </c>
-      <c r="M30" s="5">
+      <c r="N30" s="5">
         <v>3204009</v>
       </c>
-      <c r="N30" s="5">
+      <c r="O30" s="5">
         <v>3673777</v>
       </c>
-      <c r="O30" s="5">
+      <c r="P30" s="5">
         <v>4144666</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="3">
         <v>39355657</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="3">
         <v>39436268</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="3">
         <v>39056838</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>37644363</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>36910747</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <v>36136765</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>37998035</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
         <v>39136242</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>40768959</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
         <v>42290925</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <v>43393303</v>
       </c>
-      <c r="M31" s="3">
+      <c r="N31" s="3">
         <v>40254360</v>
       </c>
-      <c r="N31" s="3">
+      <c r="O31" s="3">
         <v>44123986</v>
       </c>
-      <c r="O31" s="3">
+      <c r="P31" s="3">
         <v>50022532</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="5">
         <v>7493648</v>
       </c>
-      <c r="C32" s="5">
+      <c r="D32" s="5">
         <v>7475952</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E32" s="5">
         <v>7336142</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <v>7136920</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <v>7071745</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H32" s="5">
         <v>6986452</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I32" s="5">
         <v>7415263</v>
       </c>
-      <c r="I32" s="5">
+      <c r="J32" s="5">
         <v>7570409</v>
       </c>
-      <c r="J32" s="5">
+      <c r="K32" s="5">
         <v>7992903</v>
       </c>
-      <c r="K32" s="5">
+      <c r="L32" s="5">
         <v>8285269</v>
       </c>
-      <c r="L32" s="5">
+      <c r="M32" s="5">
         <v>8627212</v>
       </c>
-      <c r="M32" s="5">
+      <c r="N32" s="5">
         <v>8010434</v>
       </c>
-      <c r="N32" s="5">
+      <c r="O32" s="5">
         <v>8853382</v>
       </c>
-      <c r="O32" s="5">
+      <c r="P32" s="5">
         <v>9520852</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="5">
         <v>10149177</v>
       </c>
-      <c r="C33" s="5">
+      <c r="D33" s="5">
         <v>10303937</v>
       </c>
-      <c r="D33" s="5">
+      <c r="E33" s="5">
         <v>10247330</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="5">
         <v>9900433</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <v>9580378</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H33" s="5">
         <v>9333137</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I33" s="5">
         <v>10090661</v>
       </c>
-      <c r="I33" s="5">
+      <c r="J33" s="5">
         <v>10345475</v>
       </c>
-      <c r="J33" s="5">
+      <c r="K33" s="5">
         <v>10690171</v>
       </c>
-      <c r="K33" s="5">
+      <c r="L33" s="5">
         <v>10906668</v>
       </c>
-      <c r="L33" s="5">
+      <c r="M33" s="5">
         <v>11016000</v>
       </c>
-      <c r="M33" s="5">
+      <c r="N33" s="5">
         <v>10182564</v>
       </c>
-      <c r="N33" s="5">
+      <c r="O33" s="5">
         <v>10481171</v>
       </c>
-      <c r="O33" s="5">
+      <c r="P33" s="5">
         <v>12254351</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="5">
         <v>4103525</v>
       </c>
-      <c r="C34" s="5">
+      <c r="D34" s="5">
         <v>4235332</v>
       </c>
-      <c r="D34" s="5">
+      <c r="E34" s="5">
         <v>4283056</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="5">
         <v>4156823</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>4098243</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5">
         <v>4001509</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I34" s="5">
         <v>4214077</v>
       </c>
-      <c r="I34" s="5">
+      <c r="J34" s="5">
         <v>4290139</v>
       </c>
-      <c r="J34" s="5">
+      <c r="K34" s="5">
         <v>4421111</v>
       </c>
-      <c r="K34" s="5">
+      <c r="L34" s="5">
         <v>4599762</v>
       </c>
-      <c r="L34" s="5">
+      <c r="M34" s="5">
         <v>4587758</v>
       </c>
-      <c r="M34" s="5">
+      <c r="N34" s="5">
         <v>4253677</v>
       </c>
-      <c r="N34" s="5">
+      <c r="O34" s="5">
         <v>4975017</v>
       </c>
-      <c r="O34" s="5">
+      <c r="P34" s="5">
         <v>5641503</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="5">
         <v>4863568</v>
       </c>
-      <c r="C35" s="5">
+      <c r="D35" s="5">
         <v>4991677</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="5">
         <v>5046671</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>4883247</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>4726034</v>
       </c>
-      <c r="G35" s="5">
+      <c r="H35" s="5">
         <v>4501712</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I35" s="5">
         <v>4518988</v>
       </c>
-      <c r="I35" s="5">
+      <c r="J35" s="5">
         <v>4750576</v>
       </c>
-      <c r="J35" s="5">
+      <c r="K35" s="5">
         <v>5106037</v>
       </c>
-      <c r="K35" s="5">
+      <c r="L35" s="5">
         <v>5379941</v>
       </c>
-      <c r="L35" s="5">
+      <c r="M35" s="5">
         <v>5647861</v>
       </c>
-      <c r="M35" s="5">
+      <c r="N35" s="5">
         <v>5225237</v>
       </c>
-      <c r="N35" s="5">
+      <c r="O35" s="5">
         <v>5804558</v>
       </c>
-      <c r="O35" s="5">
+      <c r="P35" s="5">
         <v>6778582</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="5">
         <v>12745739</v>
       </c>
-      <c r="C36" s="5">
+      <c r="D36" s="5">
         <v>12429370</v>
       </c>
-      <c r="D36" s="5">
+      <c r="E36" s="5">
         <v>12143639</v>
       </c>
-      <c r="E36" s="5">
+      <c r="F36" s="5">
         <v>11566940</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>11434347</v>
       </c>
-      <c r="G36" s="5">
+      <c r="H36" s="5">
         <v>11313955</v>
       </c>
-      <c r="H36" s="5">
+      <c r="I36" s="5">
         <v>11759046</v>
       </c>
-      <c r="I36" s="5">
+      <c r="J36" s="5">
         <v>12179643</v>
       </c>
-      <c r="J36" s="5">
+      <c r="K36" s="5">
         <v>12558737</v>
       </c>
-      <c r="K36" s="5">
+      <c r="L36" s="5">
         <v>13119285</v>
       </c>
-      <c r="L36" s="5">
+      <c r="M36" s="5">
         <v>13514472</v>
       </c>
-      <c r="M36" s="5">
+      <c r="N36" s="5">
         <v>12582448</v>
       </c>
-      <c r="N36" s="5">
+      <c r="O36" s="5">
         <v>14009858</v>
       </c>
-      <c r="O36" s="5">
+      <c r="P36" s="5">
         <v>15827244</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="3">
         <v>200745296</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D37" s="3">
         <v>202602183</v>
       </c>
-      <c r="D37" s="3">
+      <c r="E37" s="3">
         <v>199939125</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>194512765</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>193328965</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="3">
         <v>196999531</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>206434270</v>
       </c>
-      <c r="I37" s="3">
+      <c r="J37" s="3">
         <v>214502547</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37" s="3">
         <v>223139777</v>
       </c>
-      <c r="K37" s="3">
+      <c r="L37" s="3">
         <v>231101287</v>
       </c>
-      <c r="L37" s="3">
+      <c r="M37" s="3">
         <v>240165818</v>
       </c>
-      <c r="M37" s="3">
+      <c r="N37" s="3">
         <v>214857435</v>
       </c>
-      <c r="N37" s="3">
+      <c r="O37" s="3">
         <v>234820402</v>
       </c>
-      <c r="O37" s="3">
+      <c r="P37" s="3">
         <v>258786739</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="5">
         <v>148013898</v>
       </c>
-      <c r="C38" s="5">
+      <c r="D38" s="5">
         <v>149085075</v>
       </c>
-      <c r="D38" s="5">
+      <c r="E38" s="5">
         <v>147153463</v>
       </c>
-      <c r="E38" s="5">
+      <c r="F38" s="5">
         <v>142976193</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>142239624</v>
       </c>
-      <c r="G38" s="5">
+      <c r="H38" s="5">
         <v>145147311</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <v>151999258</v>
       </c>
-      <c r="I38" s="5">
+      <c r="J38" s="5">
         <v>158516150</v>
       </c>
-      <c r="J38" s="5">
+      <c r="K38" s="5">
         <v>166618005</v>
       </c>
-      <c r="K38" s="5">
+      <c r="L38" s="5">
         <v>173436258</v>
       </c>
-      <c r="L38" s="5">
+      <c r="M38" s="5">
         <v>180560179</v>
       </c>
-      <c r="M38" s="5">
+      <c r="N38" s="5">
         <v>161885097</v>
       </c>
-      <c r="N38" s="5">
+      <c r="O38" s="5">
         <v>173917445</v>
       </c>
-      <c r="O38" s="5">
+      <c r="P38" s="5">
         <v>191219711</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="5">
         <v>19663877</v>
       </c>
-      <c r="C39" s="5">
+      <c r="D39" s="5">
         <v>19925603</v>
       </c>
-      <c r="D39" s="5">
+      <c r="E39" s="5">
         <v>19613079</v>
       </c>
-      <c r="E39" s="5">
+      <c r="F39" s="5">
         <v>19171193</v>
       </c>
-      <c r="F39" s="5">
+      <c r="G39" s="5">
         <v>18840096</v>
       </c>
-      <c r="G39" s="5">
+      <c r="H39" s="5">
         <v>19103222</v>
       </c>
-      <c r="H39" s="5">
+      <c r="I39" s="5">
         <v>19879718</v>
       </c>
-      <c r="I39" s="5">
+      <c r="J39" s="5">
         <v>20769493</v>
       </c>
-      <c r="J39" s="5">
+      <c r="K39" s="5">
         <v>20612222</v>
       </c>
-      <c r="K39" s="5">
+      <c r="L39" s="5">
         <v>21178933</v>
       </c>
-      <c r="L39" s="5">
+      <c r="M39" s="5">
         <v>22059649</v>
       </c>
-      <c r="M39" s="5">
+      <c r="N39" s="5">
         <v>19755932</v>
       </c>
-      <c r="N39" s="5">
+      <c r="O39" s="5">
         <v>23348038</v>
       </c>
-      <c r="O39" s="5">
+      <c r="P39" s="5">
         <v>26292953</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="5">
         <v>11949576</v>
       </c>
-      <c r="C40" s="5">
+      <c r="D40" s="5">
         <v>11977383</v>
       </c>
-      <c r="D40" s="5">
+      <c r="E40" s="5">
         <v>11908489</v>
       </c>
-      <c r="E40" s="5">
+      <c r="F40" s="5">
         <v>11815547</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
         <v>11917348</v>
       </c>
-      <c r="G40" s="5">
+      <c r="H40" s="5">
         <v>11995085</v>
       </c>
-      <c r="H40" s="5">
+      <c r="I40" s="5">
         <v>12512869</v>
       </c>
-      <c r="I40" s="5">
+      <c r="J40" s="5">
         <v>12160547</v>
       </c>
-      <c r="J40" s="5">
+      <c r="K40" s="5">
         <v>11803319</v>
       </c>
-      <c r="K40" s="5">
+      <c r="L40" s="5">
         <v>12191707</v>
       </c>
-      <c r="L40" s="5">
+      <c r="M40" s="5">
         <v>12766171</v>
       </c>
-      <c r="M40" s="5">
+      <c r="N40" s="5">
         <v>11635303</v>
       </c>
-      <c r="N40" s="5">
+      <c r="O40" s="5">
         <v>12954308</v>
       </c>
-      <c r="O40" s="5">
+      <c r="P40" s="5">
         <v>13796019</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="5">
         <v>21117945</v>
       </c>
-      <c r="C41" s="5">
+      <c r="D41" s="5">
         <v>21614122</v>
       </c>
-      <c r="D41" s="5">
+      <c r="E41" s="5">
         <v>21264094</v>
       </c>
-      <c r="E41" s="5">
+      <c r="F41" s="5">
         <v>20549832</v>
       </c>
-      <c r="F41" s="5">
+      <c r="G41" s="5">
         <v>20331897</v>
       </c>
-      <c r="G41" s="5">
+      <c r="H41" s="5">
         <v>20753913</v>
       </c>
-      <c r="H41" s="5">
+      <c r="I41" s="5">
         <v>22042425</v>
       </c>
-      <c r="I41" s="5">
+      <c r="J41" s="5">
         <v>23056357</v>
       </c>
-      <c r="J41" s="5">
+      <c r="K41" s="5">
         <v>24106231</v>
       </c>
-      <c r="K41" s="5">
+      <c r="L41" s="5">
         <v>24294389</v>
       </c>
-      <c r="L41" s="5">
+      <c r="M41" s="5">
         <v>24779819</v>
       </c>
-      <c r="M41" s="5">
+      <c r="N41" s="5">
         <v>21581103</v>
       </c>
-      <c r="N41" s="5">
+      <c r="O41" s="5">
         <v>24600611</v>
       </c>
-      <c r="O41" s="5">
+      <c r="P41" s="5">
         <v>27478056</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="3">
         <v>101989994</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D42" s="3">
         <v>101870024</v>
       </c>
-      <c r="D42" s="3">
+      <c r="E42" s="3">
         <v>100387555</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>95835883</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>95110090</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>97256083</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>101214206</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>104205396</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>108666712</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>112749574</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>116588528</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>106067171</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>116386906</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>127671811</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="5">
         <v>33342900</v>
       </c>
-      <c r="C43" s="5">
+      <c r="D43" s="5">
         <v>32903479</v>
       </c>
-      <c r="D43" s="5">
+      <c r="E43" s="5">
         <v>31797645</v>
       </c>
-      <c r="E43" s="5">
+      <c r="F43" s="5">
         <v>30426162</v>
       </c>
-      <c r="F43" s="5">
+      <c r="G43" s="5">
         <v>30216225</v>
       </c>
-      <c r="G43" s="5">
+      <c r="H43" s="5">
         <v>31138747</v>
       </c>
-      <c r="H43" s="5">
+      <c r="I43" s="5">
         <v>32372261</v>
       </c>
-      <c r="I43" s="5">
+      <c r="J43" s="5">
         <v>33899084</v>
       </c>
-      <c r="J43" s="5">
+      <c r="K43" s="5">
         <v>35422930</v>
       </c>
-      <c r="K43" s="5">
+      <c r="L43" s="5">
         <v>36463569</v>
       </c>
-      <c r="L43" s="5">
+      <c r="M43" s="5">
         <v>37807882</v>
       </c>
-      <c r="M43" s="5">
+      <c r="N43" s="5">
         <v>34503374</v>
       </c>
-      <c r="N43" s="5">
+      <c r="O43" s="5">
         <v>38470028</v>
       </c>
-      <c r="O43" s="5">
+      <c r="P43" s="5">
         <v>41930618</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="5">
         <v>13252414</v>
       </c>
-      <c r="C44" s="5">
+      <c r="D44" s="5">
         <v>13333138</v>
       </c>
-      <c r="D44" s="5">
+      <c r="E44" s="5">
         <v>13533581</v>
       </c>
-      <c r="E44" s="5">
+      <c r="F44" s="5">
         <v>12669209</v>
       </c>
-      <c r="F44" s="5">
+      <c r="G44" s="5">
         <v>12619772</v>
       </c>
-      <c r="G44" s="5">
+      <c r="H44" s="5">
         <v>12734887</v>
       </c>
-      <c r="H44" s="5">
+      <c r="I44" s="5">
         <v>13628582</v>
       </c>
-      <c r="I44" s="5">
+      <c r="J44" s="5">
         <v>14223009</v>
       </c>
-      <c r="J44" s="5">
+      <c r="K44" s="5">
         <v>15506038</v>
       </c>
-      <c r="K44" s="5">
+      <c r="L44" s="5">
         <v>15685255</v>
       </c>
-      <c r="L44" s="5">
+      <c r="M44" s="5">
         <v>16135189</v>
       </c>
-      <c r="M44" s="5">
+      <c r="N44" s="5">
         <v>14341241</v>
       </c>
-      <c r="N44" s="5">
+      <c r="O44" s="5">
         <v>15775645</v>
       </c>
-      <c r="O44" s="5">
+      <c r="P44" s="5">
         <v>17517896</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="5">
         <v>55394680</v>
       </c>
-      <c r="C45" s="5">
+      <c r="D45" s="5">
         <v>55633407</v>
       </c>
-      <c r="D45" s="5">
+      <c r="E45" s="5">
         <v>55056329</v>
       </c>
-      <c r="E45" s="5">
+      <c r="F45" s="5">
         <v>52740512</v>
       </c>
-      <c r="F45" s="5">
+      <c r="G45" s="5">
         <v>52274093</v>
       </c>
-      <c r="G45" s="5">
+      <c r="H45" s="5">
         <v>53382449</v>
       </c>
-      <c r="H45" s="5">
+      <c r="I45" s="5">
         <v>55213363</v>
       </c>
-      <c r="I45" s="5">
+      <c r="J45" s="5">
         <v>56083303</v>
       </c>
-      <c r="J45" s="5">
+      <c r="K45" s="5">
         <v>57737744</v>
       </c>
-      <c r="K45" s="5">
+      <c r="L45" s="5">
         <v>60600750</v>
       </c>
-      <c r="L45" s="5">
+      <c r="M45" s="5">
         <v>62645457</v>
       </c>
-      <c r="M45" s="5">
+      <c r="N45" s="5">
         <v>57222556</v>
       </c>
-      <c r="N45" s="5">
+      <c r="O45" s="5">
         <v>62141233</v>
       </c>
-      <c r="O45" s="5">
+      <c r="P45" s="5">
         <v>68223297</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3">
         <v>18370208</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D46" s="3">
         <v>18652452</v>
       </c>
-      <c r="D46" s="3">
+      <c r="E46" s="3">
         <v>18273867</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>17579526</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>17606422</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>17564650</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18494971</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>19069471</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>20169546</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20713254</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21166132</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19497343</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21551517</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>23479961</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="5">
         <v>11591101</v>
       </c>
-      <c r="C47" s="5">
+      <c r="D47" s="5">
         <v>11631036</v>
       </c>
-      <c r="D47" s="5">
+      <c r="E47" s="5">
         <v>11431076</v>
       </c>
-      <c r="E47" s="5">
+      <c r="F47" s="5">
         <v>10820189</v>
       </c>
-      <c r="F47" s="5">
+      <c r="G47" s="5">
         <v>10853765</v>
       </c>
-      <c r="G47" s="5">
+      <c r="H47" s="5">
         <v>10798698</v>
       </c>
-      <c r="H47" s="5">
+      <c r="I47" s="5">
         <v>11444973</v>
       </c>
-      <c r="I47" s="5">
+      <c r="J47" s="5">
         <v>11776505</v>
       </c>
-      <c r="J47" s="5">
+      <c r="K47" s="5">
         <v>12419839</v>
       </c>
-      <c r="K47" s="5">
+      <c r="L47" s="5">
         <v>12609609</v>
       </c>
-      <c r="L47" s="5">
+      <c r="M47" s="5">
         <v>12838980</v>
       </c>
-      <c r="M47" s="5">
+      <c r="N47" s="5">
         <v>11979224</v>
       </c>
-      <c r="N47" s="5">
+      <c r="O47" s="5">
         <v>12729424</v>
       </c>
-      <c r="O47" s="5">
+      <c r="P47" s="5">
         <v>13641679</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="5">
         <v>6779107</v>
       </c>
-      <c r="C48" s="5">
+      <c r="D48" s="5">
         <v>7021416</v>
       </c>
-      <c r="D48" s="5">
+      <c r="E48" s="5">
         <v>6842791</v>
       </c>
-      <c r="E48" s="5">
+      <c r="F48" s="5">
         <v>6759337</v>
       </c>
-      <c r="F48" s="5">
+      <c r="G48" s="5">
         <v>6752657</v>
       </c>
-      <c r="G48" s="5">
+      <c r="H48" s="5">
         <v>6765952</v>
       </c>
-      <c r="H48" s="5">
+      <c r="I48" s="5">
         <v>7049998</v>
       </c>
-      <c r="I48" s="5">
+      <c r="J48" s="5">
         <v>7292966</v>
       </c>
-      <c r="J48" s="5">
+      <c r="K48" s="5">
         <v>7749707</v>
       </c>
-      <c r="K48" s="5">
+      <c r="L48" s="5">
         <v>8103645</v>
       </c>
-      <c r="L48" s="5">
+      <c r="M48" s="5">
         <v>8327152</v>
       </c>
-      <c r="M48" s="5">
+      <c r="N48" s="5">
         <v>7518119</v>
       </c>
-      <c r="N48" s="5">
+      <c r="O48" s="5">
         <v>8822093</v>
       </c>
-      <c r="O48" s="5">
+      <c r="P48" s="5">
         <v>9838282</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="3">
         <v>56253055</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="3">
         <v>56787248</v>
       </c>
-      <c r="D49" s="3">
+      <c r="E49" s="3">
         <v>55816965</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>54021344</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>54038718</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>54411393</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>57010602</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>58564023</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>60630852</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>62649363</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>64502005</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>59007178</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>64387386</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>71637767</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="5">
         <v>24535924</v>
       </c>
-      <c r="C50" s="5">
+      <c r="D50" s="5">
         <v>24892163</v>
       </c>
-      <c r="D50" s="5">
+      <c r="E50" s="5">
         <v>24350711</v>
       </c>
-      <c r="E50" s="5">
+      <c r="F50" s="5">
         <v>23406101</v>
       </c>
-      <c r="F50" s="5">
+      <c r="G50" s="5">
         <v>23402450</v>
       </c>
-      <c r="G50" s="5">
+      <c r="H50" s="5">
         <v>23270840</v>
       </c>
-      <c r="H50" s="5">
+      <c r="I50" s="5">
         <v>24557831</v>
       </c>
-      <c r="I50" s="5">
+      <c r="J50" s="5">
         <v>25451524</v>
       </c>
-      <c r="J50" s="5">
+      <c r="K50" s="5">
         <v>26097818</v>
       </c>
-      <c r="K50" s="5">
+      <c r="L50" s="5">
         <v>27211854</v>
       </c>
-      <c r="L50" s="5">
+      <c r="M50" s="5">
         <v>27819424</v>
       </c>
-      <c r="M50" s="5">
+      <c r="N50" s="5">
         <v>25501350</v>
       </c>
-      <c r="N50" s="5">
+      <c r="O50" s="5">
         <v>27529654</v>
       </c>
-      <c r="O50" s="5">
+      <c r="P50" s="5">
         <v>31172218</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="5">
         <v>6743957</v>
       </c>
-      <c r="C51" s="5">
+      <c r="D51" s="5">
         <v>6993369</v>
       </c>
-      <c r="D51" s="5">
+      <c r="E51" s="5">
         <v>6999302</v>
       </c>
-      <c r="E51" s="5">
+      <c r="F51" s="5">
         <v>6882138</v>
       </c>
-      <c r="F51" s="5">
+      <c r="G51" s="5">
         <v>6921067</v>
       </c>
-      <c r="G51" s="5">
+      <c r="H51" s="5">
         <v>7111983</v>
       </c>
-      <c r="H51" s="5">
+      <c r="I51" s="5">
         <v>7495869</v>
       </c>
-      <c r="I51" s="5">
+      <c r="J51" s="5">
         <v>7472883</v>
       </c>
-      <c r="J51" s="5">
+      <c r="K51" s="5">
         <v>7458900</v>
       </c>
-      <c r="K51" s="5">
+      <c r="L51" s="5">
         <v>7768980</v>
       </c>
-      <c r="L51" s="5">
+      <c r="M51" s="5">
         <v>7822876</v>
       </c>
-      <c r="M51" s="5">
+      <c r="N51" s="5">
         <v>6945138</v>
       </c>
-      <c r="N51" s="5">
+      <c r="O51" s="5">
         <v>7637441</v>
       </c>
-      <c r="O51" s="5">
+      <c r="P51" s="5">
         <v>8564786</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="5">
         <v>5936667</v>
       </c>
-      <c r="C52" s="5">
+      <c r="D52" s="5">
         <v>6119620</v>
       </c>
-      <c r="D52" s="5">
+      <c r="E52" s="5">
         <v>6174012</v>
       </c>
-      <c r="E52" s="5">
+      <c r="F52" s="5">
         <v>6065943</v>
       </c>
-      <c r="F52" s="5">
+      <c r="G52" s="5">
         <v>5948549</v>
       </c>
-      <c r="G52" s="5">
+      <c r="H52" s="5">
         <v>5918538</v>
       </c>
-      <c r="H52" s="5">
+      <c r="I52" s="5">
         <v>6092205</v>
       </c>
-      <c r="I52" s="5">
+      <c r="J52" s="5">
         <v>6317422</v>
       </c>
-      <c r="J52" s="5">
+      <c r="K52" s="5">
         <v>6517804</v>
       </c>
-      <c r="K52" s="5">
+      <c r="L52" s="5">
         <v>6785155</v>
       </c>
-      <c r="L52" s="5">
+      <c r="M52" s="5">
         <v>7138919</v>
       </c>
-      <c r="M52" s="5">
+      <c r="N52" s="5">
         <v>6420384</v>
       </c>
-      <c r="N52" s="5">
+      <c r="O52" s="5">
         <v>7262638</v>
       </c>
-      <c r="O52" s="5">
+      <c r="P52" s="5">
         <v>8121861</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="5">
         <v>19036507</v>
       </c>
-      <c r="C53" s="5">
+      <c r="D53" s="5">
         <v>18782096</v>
       </c>
-      <c r="D53" s="5">
+      <c r="E53" s="5">
         <v>18292940</v>
       </c>
-      <c r="E53" s="5">
+      <c r="F53" s="5">
         <v>17667162</v>
       </c>
-      <c r="F53" s="5">
+      <c r="G53" s="5">
         <v>17766652</v>
       </c>
-      <c r="G53" s="5">
+      <c r="H53" s="5">
         <v>18110032</v>
       </c>
-      <c r="H53" s="5">
+      <c r="I53" s="5">
         <v>18864697</v>
       </c>
-      <c r="I53" s="5">
+      <c r="J53" s="5">
         <v>19322194</v>
       </c>
-      <c r="J53" s="5">
+      <c r="K53" s="5">
         <v>20556330</v>
       </c>
-      <c r="K53" s="5">
+      <c r="L53" s="5">
         <v>20883374</v>
       </c>
-      <c r="L53" s="5">
+      <c r="M53" s="5">
         <v>21720786</v>
       </c>
-      <c r="M53" s="5">
+      <c r="N53" s="5">
         <v>20140306</v>
       </c>
-      <c r="N53" s="5">
+      <c r="O53" s="5">
         <v>21957653</v>
       </c>
-      <c r="O53" s="5">
+      <c r="P53" s="5">
         <v>23778902</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="3">
         <v>199290149</v>
       </c>
-      <c r="C54" s="3">
+      <c r="D54" s="3">
         <v>198289849</v>
       </c>
-      <c r="D54" s="3">
+      <c r="E54" s="3">
         <v>199623724</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>196359670</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>193344523</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>196018105</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>206231525</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>214469101</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>224373156</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>233735808</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>243889359</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>221061932</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>239837609</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>267385856</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="3">
         <v>28076274</v>
       </c>
-      <c r="C55" s="3">
+      <c r="D55" s="3">
         <v>28372216</v>
       </c>
-      <c r="D55" s="3">
+      <c r="E55" s="3">
         <v>27698320</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F55" s="3">
         <v>26950848</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <v>27046880</v>
       </c>
-      <c r="G55" s="3">
+      <c r="H55" s="3">
         <v>27239109</v>
       </c>
-      <c r="H55" s="3">
+      <c r="I55" s="3">
         <v>29168718</v>
       </c>
-      <c r="I55" s="3">
+      <c r="J55" s="3">
         <v>30009138</v>
       </c>
-      <c r="J55" s="3">
+      <c r="K55" s="3">
         <v>31192490</v>
       </c>
-      <c r="K55" s="3">
+      <c r="L55" s="3">
         <v>31715345</v>
       </c>
-      <c r="L55" s="3">
+      <c r="M55" s="3">
         <v>33000651</v>
       </c>
-      <c r="M55" s="3">
+      <c r="N55" s="3">
         <v>30440306</v>
       </c>
-      <c r="N55" s="3">
+      <c r="O55" s="3">
         <v>33603543</v>
       </c>
-      <c r="O55" s="3">
+      <c r="P55" s="3">
         <v>37408748</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="3">
         <v>18001876</v>
       </c>
-      <c r="C56" s="3">
+      <c r="D56" s="3">
         <v>18089072</v>
       </c>
-      <c r="D56" s="3">
+      <c r="E56" s="3">
         <v>18058363</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F56" s="3">
         <v>17377685</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>17346722</v>
       </c>
-      <c r="G56" s="3">
+      <c r="H56" s="3">
         <v>17642027</v>
       </c>
-      <c r="H56" s="3">
+      <c r="I56" s="3">
         <v>18334417</v>
       </c>
-      <c r="I56" s="3">
+      <c r="J56" s="3">
         <v>18911331</v>
       </c>
-      <c r="J56" s="3">
+      <c r="K56" s="3">
         <v>19698794</v>
       </c>
-      <c r="K56" s="3">
+      <c r="L56" s="3">
         <v>20235995</v>
       </c>
-      <c r="L56" s="3">
+      <c r="M56" s="3">
         <v>21070268</v>
       </c>
-      <c r="M56" s="3">
+      <c r="N56" s="3">
         <v>19160726</v>
       </c>
-      <c r="N56" s="3">
+      <c r="O56" s="3">
         <v>20821017</v>
       </c>
-      <c r="O56" s="3">
+      <c r="P56" s="3">
         <v>23208786</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="3">
         <v>63601702</v>
       </c>
-      <c r="C57" s="3">
+      <c r="D57" s="3">
         <v>64424609</v>
       </c>
-      <c r="D57" s="3">
+      <c r="E57" s="3">
         <v>63907269</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>62342907</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>61496663</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>62636949</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>65073341</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>67114993</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>69585295</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>71915111</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>73999981</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>66672598</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>72513029</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>80260696</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="5">
         <v>10804923</v>
       </c>
-      <c r="C58" s="5">
+      <c r="D58" s="5">
         <v>10777281</v>
       </c>
-      <c r="D58" s="5">
+      <c r="E58" s="5">
         <v>10873362</v>
       </c>
-      <c r="E58" s="5">
+      <c r="F58" s="5">
         <v>10581050</v>
       </c>
-      <c r="F58" s="5">
+      <c r="G58" s="5">
         <v>10688191</v>
       </c>
-      <c r="G58" s="5">
+      <c r="H58" s="5">
         <v>11006555</v>
       </c>
-      <c r="H58" s="5">
+      <c r="I58" s="5">
         <v>11296790</v>
       </c>
-      <c r="I58" s="5">
+      <c r="J58" s="5">
         <v>11960737</v>
       </c>
-      <c r="J58" s="5">
+      <c r="K58" s="5">
         <v>12336129</v>
       </c>
-      <c r="K58" s="5">
+      <c r="L58" s="5">
         <v>12721159</v>
       </c>
-      <c r="L58" s="5">
+      <c r="M58" s="5">
         <v>12797528</v>
       </c>
-      <c r="M58" s="5">
+      <c r="N58" s="5">
         <v>11764228</v>
       </c>
-      <c r="N58" s="5">
+      <c r="O58" s="5">
         <v>11958641</v>
       </c>
-      <c r="O58" s="5">
+      <c r="P58" s="5">
         <v>12848713</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="5">
         <v>32259278</v>
       </c>
-      <c r="C59" s="5">
+      <c r="D59" s="5">
         <v>32762915</v>
       </c>
-      <c r="D59" s="5">
+      <c r="E59" s="5">
         <v>32190244</v>
       </c>
-      <c r="E59" s="5">
+      <c r="F59" s="5">
         <v>31377562</v>
       </c>
-      <c r="F59" s="5">
+      <c r="G59" s="5">
         <v>30774755</v>
       </c>
-      <c r="G59" s="5">
+      <c r="H59" s="5">
         <v>31462557</v>
       </c>
-      <c r="H59" s="5">
+      <c r="I59" s="5">
         <v>32886826</v>
       </c>
-      <c r="I59" s="5">
+      <c r="J59" s="5">
         <v>33686330</v>
       </c>
-      <c r="J59" s="5">
+      <c r="K59" s="5">
         <v>34314272</v>
       </c>
-      <c r="K59" s="5">
+      <c r="L59" s="5">
         <v>35599877</v>
       </c>
-      <c r="L59" s="5">
+      <c r="M59" s="5">
         <v>36737656</v>
       </c>
-      <c r="M59" s="5">
+      <c r="N59" s="5">
         <v>33016596</v>
       </c>
-      <c r="N59" s="5">
+      <c r="O59" s="5">
         <v>35910195</v>
       </c>
-      <c r="O59" s="5">
+      <c r="P59" s="5">
         <v>41047613</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="5">
         <v>20537501</v>
       </c>
-      <c r="C60" s="5">
+      <c r="D60" s="5">
         <v>20884413</v>
       </c>
-      <c r="D60" s="5">
+      <c r="E60" s="5">
         <v>20843663</v>
       </c>
-      <c r="E60" s="5">
+      <c r="F60" s="5">
         <v>20384295</v>
       </c>
-      <c r="F60" s="5">
+      <c r="G60" s="5">
         <v>20033717</v>
       </c>
-      <c r="G60" s="5">
+      <c r="H60" s="5">
         <v>20167837</v>
       </c>
-      <c r="H60" s="5">
+      <c r="I60" s="5">
         <v>20889725</v>
       </c>
-      <c r="I60" s="5">
+      <c r="J60" s="5">
         <v>21467926</v>
       </c>
-      <c r="J60" s="5">
+      <c r="K60" s="5">
         <v>22934894</v>
       </c>
-      <c r="K60" s="5">
+      <c r="L60" s="5">
         <v>23594075</v>
       </c>
-      <c r="L60" s="5">
+      <c r="M60" s="5">
         <v>24464797</v>
       </c>
-      <c r="M60" s="5">
+      <c r="N60" s="5">
         <v>21891774</v>
       </c>
-      <c r="N60" s="5">
+      <c r="O60" s="5">
         <v>24644193</v>
       </c>
-      <c r="O60" s="5">
+      <c r="P60" s="5">
         <v>26364370</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="3">
         <v>7911873</v>
       </c>
-      <c r="C61" s="3">
+      <c r="D61" s="3">
         <v>8008552</v>
       </c>
-      <c r="D61" s="3">
+      <c r="E61" s="3">
         <v>7945371</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7669045</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7581142</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7738447</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8033065</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8074094</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8351707</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8649852</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8889997</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>8186915</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8735750</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9766689</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="3">
         <v>1484372</v>
       </c>
-      <c r="C62" s="3">
+      <c r="D62" s="3">
         <v>1494058</v>
       </c>
-      <c r="D62" s="3">
+      <c r="E62" s="3">
         <v>1491191</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1438908</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1454750</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1446625</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1498459</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1537398</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1553567</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1611648</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1659979</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1535718</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1634006</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1768941</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="3">
         <v>1361870</v>
       </c>
-      <c r="C63" s="3">
+      <c r="D63" s="3">
         <v>1367400</v>
       </c>
-      <c r="D63" s="3">
+      <c r="E63" s="3">
         <v>1374489</v>
       </c>
-      <c r="E63" s="3">
+      <c r="F63" s="3">
         <v>1325903</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="3">
         <v>1339497</v>
       </c>
-      <c r="G63" s="3">
+      <c r="H63" s="3">
         <v>1350573</v>
       </c>
-      <c r="H63" s="3">
+      <c r="I63" s="3">
         <v>1407605</v>
       </c>
-      <c r="I63" s="3">
+      <c r="J63" s="3">
         <v>1452752</v>
       </c>
-      <c r="J63" s="3">
+      <c r="K63" s="3">
         <v>1466610</v>
       </c>
-      <c r="K63" s="3">
+      <c r="L63" s="3">
         <v>1510904</v>
       </c>
-      <c r="L63" s="3">
+      <c r="M63" s="3">
         <v>1560101</v>
       </c>
-      <c r="M63" s="3">
+      <c r="N63" s="3">
         <v>1452031</v>
       </c>
-      <c r="N63" s="3">
+      <c r="O63" s="3">
         <v>1534391</v>
       </c>
-      <c r="O63" s="3">
+      <c r="P63" s="3">
         <v>1657781</v>
       </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
